--- a/models/similarity_analysis_results.xlsx
+++ b/models/similarity_analysis_results.xlsx
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9554026126861572</v>
+        <v>0.9581470489501953</v>
       </c>
       <c r="F2" t="n">
-        <v>14.30524826049805</v>
+        <v>27.2365779876709</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9453665614128113</v>
+        <v>0.9726821184158325</v>
       </c>
       <c r="F3" t="n">
-        <v>5.050918102264404</v>
+        <v>11.62791442871094</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9448174238204956</v>
+        <v>0.9751306772232056</v>
       </c>
       <c r="F4" t="n">
-        <v>4.629415988922119</v>
+        <v>8.561748504638672</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9681575298309326</v>
+        <v>0.9669203758239746</v>
       </c>
       <c r="F5" t="n">
-        <v>3.551210165023804</v>
+        <v>3.075878143310547</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9387471675872803</v>
+        <v>0.9535968899726868</v>
       </c>
       <c r="F6" t="n">
-        <v>2.463877201080322</v>
+        <v>3.00963306427002</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9632599353790283</v>
+        <v>0.96913081407547</v>
       </c>
       <c r="F7" t="n">
-        <v>3.602473497390747</v>
+        <v>6.88457202911377</v>
       </c>
     </row>
     <row r="8">
@@ -596,13 +596,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9790142774581909</v>
+        <v>0.9658517241477966</v>
       </c>
       <c r="F8" t="n">
-        <v>3.59498119354248</v>
+        <v>6.92149543762207</v>
       </c>
     </row>
     <row r="9">
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9633973240852356</v>
+        <v>0.9729109406471252</v>
       </c>
       <c r="F9" t="n">
-        <v>4.095376014709473</v>
+        <v>7.078094959259033</v>
       </c>
     </row>
     <row r="10">
@@ -636,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9571821093559265</v>
+        <v>0.9755724668502808</v>
       </c>
       <c r="F10" t="n">
-        <v>3.805203914642334</v>
+        <v>6.874359607696533</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9635239243507385</v>
+        <v>0.9727821946144104</v>
       </c>
       <c r="F11" t="n">
-        <v>3.66396689414978</v>
+        <v>6.937729835510254</v>
       </c>
     </row>
     <row r="12">
@@ -676,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9622046947479248</v>
+        <v>0.9766271710395813</v>
       </c>
       <c r="F12" t="n">
-        <v>4.15994119644165</v>
+        <v>6.732707023620605</v>
       </c>
     </row>
     <row r="13">
@@ -696,13 +696,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9662359952926636</v>
+        <v>0.974177360534668</v>
       </c>
       <c r="F13" t="n">
-        <v>3.478959798812866</v>
+        <v>6.766861915588379</v>
       </c>
     </row>
     <row r="14">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9600896835327148</v>
+        <v>0.9723767638206482</v>
       </c>
       <c r="F14" t="n">
-        <v>4.439908981323242</v>
+        <v>6.755920886993408</v>
       </c>
     </row>
     <row r="15">
@@ -736,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9615322351455688</v>
+        <v>0.9793283343315125</v>
       </c>
       <c r="F15" t="n">
-        <v>4.528486728668213</v>
+        <v>6.458359718322754</v>
       </c>
     </row>
     <row r="16">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.957782506942749</v>
+        <v>0.9806615710258484</v>
       </c>
       <c r="F16" t="n">
-        <v>4.578421592712402</v>
+        <v>6.362850666046143</v>
       </c>
     </row>
     <row r="17">
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.972611129283905</v>
+        <v>0.973452091217041</v>
       </c>
       <c r="F17" t="n">
-        <v>3.299461841583252</v>
+        <v>6.581455230712891</v>
       </c>
     </row>
     <row r="18">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9737733602523804</v>
+        <v>0.9707803726196289</v>
       </c>
       <c r="F18" t="n">
-        <v>3.506141424179077</v>
+        <v>6.358367919921875</v>
       </c>
     </row>
     <row r="19">
@@ -816,13 +816,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9717972874641418</v>
+        <v>0.9651091694831848</v>
       </c>
       <c r="F19" t="n">
-        <v>3.318929672241211</v>
+        <v>6.922805309295654</v>
       </c>
     </row>
     <row r="20">
@@ -836,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.967846691608429</v>
+        <v>0.9621800780296326</v>
       </c>
       <c r="F20" t="n">
-        <v>3.634536504745483</v>
+        <v>6.930346488952637</v>
       </c>
     </row>
     <row r="21">
@@ -856,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9621992707252502</v>
+        <v>0.9636927843093872</v>
       </c>
       <c r="F21" t="n">
-        <v>3.874537467956543</v>
+        <v>6.979143619537354</v>
       </c>
     </row>
     <row r="22">
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9570063948631287</v>
+        <v>0.9662820100784302</v>
       </c>
       <c r="F22" t="n">
-        <v>3.924296617507935</v>
+        <v>6.930806159973145</v>
       </c>
     </row>
     <row r="23">
@@ -896,13 +896,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9582898616790771</v>
+        <v>0.9687653183937073</v>
       </c>
       <c r="F23" t="n">
-        <v>3.739729881286621</v>
+        <v>7.054484367370605</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9646977186203003</v>
+        <v>0.9710410237312317</v>
       </c>
       <c r="F24" t="n">
-        <v>3.641033411026001</v>
+        <v>6.857399463653564</v>
       </c>
     </row>
     <row r="25">
@@ -936,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9661851525306702</v>
+        <v>0.9715731143951416</v>
       </c>
       <c r="F25" t="n">
-        <v>3.613670825958252</v>
+        <v>6.824254035949707</v>
       </c>
     </row>
     <row r="26">
@@ -956,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9627006053924561</v>
+        <v>0.9734756946563721</v>
       </c>
       <c r="F26" t="n">
-        <v>4.09372615814209</v>
+        <v>6.484023094177246</v>
       </c>
     </row>
     <row r="27">
@@ -976,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9638944864273071</v>
+        <v>0.9721544981002808</v>
       </c>
       <c r="F27" t="n">
-        <v>3.592233180999756</v>
+        <v>6.677976131439209</v>
       </c>
     </row>
     <row r="28">
@@ -996,13 +996,13 @@
         <v>10</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9565715789794922</v>
+        <v>0.9751306772232056</v>
       </c>
       <c r="F28" t="n">
-        <v>4.262458324432373</v>
+        <v>6.120926856994629</v>
       </c>
     </row>
     <row r="29">
@@ -1016,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.96844482421875</v>
+        <v>0.9728456735610962</v>
       </c>
       <c r="F29" t="n">
-        <v>3.476707220077515</v>
+        <v>6.330474376678467</v>
       </c>
     </row>
     <row r="30">
@@ -1036,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9758382439613342</v>
+        <v>0.9701699018478394</v>
       </c>
       <c r="F30" t="n">
-        <v>3.08892560005188</v>
+        <v>6.146648406982422</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9696639180183411</v>
+        <v>0.9227797389030457</v>
       </c>
       <c r="F31" t="n">
-        <v>3.048223733901978</v>
+        <v>7.804867744445801</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9277768731117249</v>
+        <v>0.8908389210700989</v>
       </c>
       <c r="F32" t="n">
-        <v>3.820466756820679</v>
+        <v>5.698387622833252</v>
       </c>
     </row>
     <row r="33">
@@ -1096,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8989934325218201</v>
+        <v>0.9059635996818542</v>
       </c>
       <c r="F33" t="n">
-        <v>4.674295425415039</v>
+        <v>5.931931972503662</v>
       </c>
     </row>
     <row r="34">
@@ -1116,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8748597502708435</v>
+        <v>0.8967192769050598</v>
       </c>
       <c r="F34" t="n">
-        <v>4.938108921051025</v>
+        <v>5.172765254974365</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.866952657699585</v>
+        <v>0.882795512676239</v>
       </c>
       <c r="F35" t="n">
-        <v>5.412222385406494</v>
+        <v>5.551469326019287</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8978563547134399</v>
+        <v>0.9136168956756592</v>
       </c>
       <c r="F36" t="n">
-        <v>5.511429309844971</v>
+        <v>5.590960502624512</v>
       </c>
     </row>
     <row r="37">
@@ -1176,13 +1176,13 @@
         <v>6</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9305926561355591</v>
+        <v>0.9311875104904175</v>
       </c>
       <c r="F37" t="n">
-        <v>4.571014404296875</v>
+        <v>5.077011585235596</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.937580943107605</v>
+        <v>0.9414089322090149</v>
       </c>
       <c r="F38" t="n">
-        <v>4.123313426971436</v>
+        <v>4.991747379302979</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9365137815475464</v>
+        <v>0.9382592439651489</v>
       </c>
       <c r="F39" t="n">
-        <v>5.141129493713379</v>
+        <v>6.063279151916504</v>
       </c>
     </row>
     <row r="40">
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9392645359039307</v>
+        <v>0.9394420385360718</v>
       </c>
       <c r="F40" t="n">
-        <v>3.344170570373535</v>
+        <v>4.837282657623291</v>
       </c>
     </row>
     <row r="41">
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9341082572937012</v>
+        <v>0.9256483912467957</v>
       </c>
       <c r="F41" t="n">
-        <v>3.641970872879028</v>
+        <v>4.880632400512695</v>
       </c>
     </row>
     <row r="42">
@@ -1276,13 +1276,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9410288333892822</v>
+        <v>0.9497027993202209</v>
       </c>
       <c r="F42" t="n">
-        <v>3.648338794708252</v>
+        <v>5.313899517059326</v>
       </c>
     </row>
     <row r="43">
@@ -1296,13 +1296,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9392640590667725</v>
+        <v>0.9655462503433228</v>
       </c>
       <c r="F43" t="n">
-        <v>4.314868927001953</v>
+        <v>5.291987895965576</v>
       </c>
     </row>
     <row r="44">
@@ -1316,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.981696605682373</v>
+        <v>0.9280757308006287</v>
       </c>
       <c r="F44" t="n">
-        <v>3.561522006988525</v>
+        <v>6.485997676849365</v>
       </c>
     </row>
     <row r="45">
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8637562990188599</v>
+        <v>0.8886550664901733</v>
       </c>
       <c r="F45" t="n">
-        <v>2.776081323623657</v>
+        <v>2.809918165206909</v>
       </c>
     </row>
     <row r="46">
@@ -1359,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8889987468719482</v>
+        <v>0.9165512323379517</v>
       </c>
       <c r="F46" t="n">
-        <v>2.711304903030396</v>
+        <v>2.92345118522644</v>
       </c>
     </row>
     <row r="47">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8538964986801147</v>
+        <v>0.8985440731048584</v>
       </c>
       <c r="F47" t="n">
-        <v>5.350852966308594</v>
+        <v>5.469344139099121</v>
       </c>
     </row>
     <row r="48">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8696479797363281</v>
+        <v>0.9200581908226013</v>
       </c>
       <c r="F48" t="n">
-        <v>6.374608516693115</v>
+        <v>6.019118785858154</v>
       </c>
     </row>
     <row r="49">
@@ -1416,13 +1416,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.952498733997345</v>
+        <v>0.9180120825767517</v>
       </c>
       <c r="F49" t="n">
-        <v>4.79631519317627</v>
+        <v>5.220579624176025</v>
       </c>
     </row>
     <row r="50">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9323487877845764</v>
+        <v>0.9383652806282043</v>
       </c>
       <c r="F50" t="n">
-        <v>7.578276634216309</v>
+        <v>17.41486930847168</v>
       </c>
     </row>
     <row r="51">
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9693857431411743</v>
+        <v>0.9513460993766785</v>
       </c>
       <c r="F51" t="n">
-        <v>9.269152641296387</v>
+        <v>11.04379367828369</v>
       </c>
     </row>
     <row r="52">
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9363224506378174</v>
+        <v>0.9452032446861267</v>
       </c>
       <c r="F52" t="n">
-        <v>10.09923934936523</v>
+        <v>23.78440093994141</v>
       </c>
     </row>
     <row r="53">
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9352564215660095</v>
+        <v>0.9429894089698792</v>
       </c>
       <c r="F53" t="n">
-        <v>5.806150436401367</v>
+        <v>7.515171051025391</v>
       </c>
     </row>
     <row r="54">
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9486039876937866</v>
+        <v>0.9543817043304443</v>
       </c>
       <c r="F54" t="n">
-        <v>16.94098281860352</v>
+        <v>39.24417877197266</v>
       </c>
     </row>
     <row r="55">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9408531188964844</v>
+        <v>0.9397997856140137</v>
       </c>
       <c r="F55" t="n">
-        <v>6.054255485534668</v>
+        <v>14.12214088439941</v>
       </c>
     </row>
     <row r="56">
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8285260200500488</v>
+        <v>0.8711497783660889</v>
       </c>
       <c r="F56" t="n">
-        <v>8.769561767578125</v>
+        <v>8.945986747741699</v>
       </c>
     </row>
     <row r="57">
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9453668594360352</v>
+        <v>0.961869478225708</v>
       </c>
       <c r="F57" t="n">
-        <v>12.56028652191162</v>
+        <v>30.4382438659668</v>
       </c>
     </row>
     <row r="58">
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9412903785705566</v>
+        <v>0.935046911239624</v>
       </c>
       <c r="F58" t="n">
-        <v>9.237593650817871</v>
+        <v>15.37686920166016</v>
       </c>
     </row>
     <row r="59">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8748420476913452</v>
+        <v>0.9612588286399841</v>
       </c>
       <c r="F59" t="n">
-        <v>16.55401611328125</v>
+        <v>16.3256664276123</v>
       </c>
     </row>
   </sheetData>

--- a/models/similarity_analysis_results.xlsx
+++ b/models/similarity_analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,950 +467,950 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-13.13</v>
+        <v>-20.8</v>
       </c>
       <c r="B2" t="n">
-        <v>-72.97</v>
+        <v>31.65</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9581470489501953</v>
+        <v>0.9701077938079834</v>
       </c>
       <c r="F2" t="n">
-        <v>27.2365779876709</v>
+        <v>1.827003955841064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.5</v>
+        <v>-20.8</v>
       </c>
       <c r="B3" t="n">
-        <v>-60</v>
+        <v>31.65</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9726821184158325</v>
+        <v>0.967681884765625</v>
       </c>
       <c r="F3" t="n">
-        <v>11.62791442871094</v>
+        <v>2.317392349243164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.89</v>
+        <v>-20.8</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.97</v>
+        <v>31.65</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9751306772232056</v>
+        <v>0.9721969962120056</v>
       </c>
       <c r="F4" t="n">
-        <v>8.561748504638672</v>
+        <v>1.804511785507202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.25</v>
+        <v>-20.8</v>
       </c>
       <c r="B5" t="n">
-        <v>10.75</v>
+        <v>31.65</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9669203758239746</v>
+        <v>0.9560608267784119</v>
       </c>
       <c r="F5" t="n">
-        <v>3.075878143310547</v>
+        <v>2.239175796508789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.26</v>
+        <v>-20.8</v>
       </c>
       <c r="B6" t="n">
-        <v>77.11</v>
+        <v>31.65</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9535968899726868</v>
+        <v>0.9354037046432495</v>
       </c>
       <c r="F6" t="n">
-        <v>3.00963306427002</v>
+        <v>2.120552778244019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B7" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.96913081407547</v>
+        <v>0.9361032247543335</v>
       </c>
       <c r="F7" t="n">
-        <v>6.88457202911377</v>
+        <v>2.512304067611694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B8" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9658517241477966</v>
+        <v>0.9409571886062622</v>
       </c>
       <c r="F8" t="n">
-        <v>6.92149543762207</v>
+        <v>3.382145166397095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B9" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9729109406471252</v>
+        <v>0.9615259170532227</v>
       </c>
       <c r="F9" t="n">
-        <v>7.078094959259033</v>
+        <v>3.36790132522583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B10" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9755724668502808</v>
+        <v>0.9647245407104492</v>
       </c>
       <c r="F10" t="n">
-        <v>6.874359607696533</v>
+        <v>3.037559032440186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B11" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9727821946144104</v>
+        <v>0.9720892906188965</v>
       </c>
       <c r="F11" t="n">
-        <v>6.937729835510254</v>
+        <v>2.559483289718628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B12" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9766271710395813</v>
+        <v>0.956647515296936</v>
       </c>
       <c r="F12" t="n">
-        <v>6.732707023620605</v>
+        <v>2.295562744140625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.14</v>
+        <v>-20.8</v>
       </c>
       <c r="B13" t="n">
-        <v>101.39</v>
+        <v>31.65</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.974177360534668</v>
+        <v>0.8356110453605652</v>
       </c>
       <c r="F13" t="n">
-        <v>6.766861915588379</v>
+        <v>9.997876167297363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.14</v>
+        <v>-13.41</v>
       </c>
       <c r="B14" t="n">
-        <v>101.39</v>
+        <v>79.11</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9723767638206482</v>
+        <v>0.9134128093719482</v>
       </c>
       <c r="F14" t="n">
-        <v>6.755920886993408</v>
+        <v>10.07742023468018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.14</v>
+        <v>-13.41</v>
       </c>
       <c r="B15" t="n">
-        <v>101.39</v>
+        <v>79.11</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9793283343315125</v>
+        <v>0.9237791299819946</v>
       </c>
       <c r="F15" t="n">
-        <v>6.458359718322754</v>
+        <v>10.11034393310547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.14</v>
+        <v>-13.41</v>
       </c>
       <c r="B16" t="n">
-        <v>101.39</v>
+        <v>79.11</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9806615710258484</v>
+        <v>0.9270089864730835</v>
       </c>
       <c r="F16" t="n">
-        <v>6.362850666046143</v>
+        <v>10.69318008422852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.14</v>
+        <v>-13.41</v>
       </c>
       <c r="B17" t="n">
-        <v>101.39</v>
+        <v>79.11</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.973452091217041</v>
+        <v>0.93376624584198</v>
       </c>
       <c r="F17" t="n">
-        <v>6.581455230712891</v>
+        <v>11.45257663726807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.14</v>
+        <v>-13.41</v>
       </c>
       <c r="B18" t="n">
-        <v>101.39</v>
+        <v>79.11</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9707803726196289</v>
+        <v>0.9339019060134888</v>
       </c>
       <c r="F18" t="n">
-        <v>6.358367919921875</v>
+        <v>11.83265399932861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B19" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9651091694831848</v>
+        <v>0.9352356195449829</v>
       </c>
       <c r="F19" t="n">
-        <v>6.922805309295654</v>
+        <v>12.23554611206055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B20" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9621800780296326</v>
+        <v>0.9383799433708191</v>
       </c>
       <c r="F20" t="n">
-        <v>6.930346488952637</v>
+        <v>12.52818202972412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B21" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9636927843093872</v>
+        <v>0.9379203915596008</v>
       </c>
       <c r="F21" t="n">
-        <v>6.979143619537354</v>
+        <v>12.5409517288208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B22" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9662820100784302</v>
+        <v>0.9358723163604736</v>
       </c>
       <c r="F22" t="n">
-        <v>6.930806159973145</v>
+        <v>12.51390075683594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B23" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9687653183937073</v>
+        <v>0.9035660028457642</v>
       </c>
       <c r="F23" t="n">
-        <v>7.054484367370605</v>
+        <v>10.6964750289917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B24" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9710410237312317</v>
+        <v>0.9355858564376831</v>
       </c>
       <c r="F24" t="n">
-        <v>6.857399463653564</v>
+        <v>12.0578784942627</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.35</v>
+        <v>-13.41</v>
       </c>
       <c r="B25" t="n">
-        <v>106.57</v>
+        <v>79.11</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9715731143951416</v>
+        <v>0.8868346214294434</v>
       </c>
       <c r="F25" t="n">
-        <v>6.824254035949707</v>
+        <v>10.15761756896973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.35</v>
+        <v>0.82</v>
       </c>
       <c r="B26" t="n">
-        <v>106.57</v>
+        <v>113.93</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9734756946563721</v>
+        <v>0.9456093311309814</v>
       </c>
       <c r="F26" t="n">
-        <v>6.484023094177246</v>
+        <v>1.649520397186279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14.35</v>
+        <v>0.82</v>
       </c>
       <c r="B27" t="n">
-        <v>106.57</v>
+        <v>113.93</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9721544981002808</v>
+        <v>0.9026421308517456</v>
       </c>
       <c r="F27" t="n">
-        <v>6.677976131439209</v>
+        <v>1.9819096326828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.35</v>
+        <v>0.82</v>
       </c>
       <c r="B28" t="n">
-        <v>106.57</v>
+        <v>113.93</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9751306772232056</v>
+        <v>0.9494938850402832</v>
       </c>
       <c r="F28" t="n">
-        <v>6.120926856994629</v>
+        <v>1.58450174331665</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14.35</v>
+        <v>0.82</v>
       </c>
       <c r="B29" t="n">
-        <v>106.57</v>
+        <v>113.93</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9728456735610962</v>
+        <v>0.9325361251831055</v>
       </c>
       <c r="F29" t="n">
-        <v>6.330474376678467</v>
+        <v>1.674233913421631</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14.35</v>
+        <v>0.82</v>
       </c>
       <c r="B30" t="n">
-        <v>106.57</v>
+        <v>113.93</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9701699018478394</v>
+        <v>0.9772846698760986</v>
       </c>
       <c r="F30" t="n">
-        <v>6.146648406982422</v>
+        <v>1.136173248291016</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15.87</v>
+        <v>0.82</v>
       </c>
       <c r="B31" t="n">
-        <v>100.99</v>
+        <v>113.93</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9227797389030457</v>
+        <v>0.952096164226532</v>
       </c>
       <c r="F31" t="n">
-        <v>7.804867744445801</v>
+        <v>1.353724479675293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B32" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8908389210700989</v>
+        <v>0.9535224437713623</v>
       </c>
       <c r="F32" t="n">
-        <v>5.698387622833252</v>
+        <v>1.453234791755676</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B33" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9059635996818542</v>
+        <v>0.9527928233146667</v>
       </c>
       <c r="F33" t="n">
-        <v>5.931931972503662</v>
+        <v>1.366492748260498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B34" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8967192769050598</v>
+        <v>0.921110212802887</v>
       </c>
       <c r="F34" t="n">
-        <v>5.172765254974365</v>
+        <v>1.631462693214417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B35" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.882795512676239</v>
+        <v>0.9722515940666199</v>
       </c>
       <c r="F35" t="n">
-        <v>5.551469326019287</v>
+        <v>1.350006580352783</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B36" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9136168956756592</v>
+        <v>0.9576598405838013</v>
       </c>
       <c r="F36" t="n">
-        <v>5.590960502624512</v>
+        <v>1.577656626701355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19.8</v>
+        <v>0.82</v>
       </c>
       <c r="B37" t="n">
-        <v>80.97</v>
+        <v>113.93</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9311875104904175</v>
+        <v>0.8536933064460754</v>
       </c>
       <c r="F37" t="n">
-        <v>5.077011585235596</v>
+        <v>6.526337623596191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B38" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9414089322090149</v>
+        <v>0.9793206453323364</v>
       </c>
       <c r="F38" t="n">
-        <v>4.991747379302979</v>
+        <v>1.731413722038269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B39" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9382592439651489</v>
+        <v>0.9812717437744141</v>
       </c>
       <c r="F39" t="n">
-        <v>6.063279151916504</v>
+        <v>1.661217331886292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B40" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9394420385360718</v>
+        <v>0.9722707271575928</v>
       </c>
       <c r="F40" t="n">
-        <v>4.837282657623291</v>
+        <v>1.728105783462524</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B41" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9256483912467957</v>
+        <v>0.9752877950668335</v>
       </c>
       <c r="F41" t="n">
-        <v>4.880632400512695</v>
+        <v>1.367779612541199</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B42" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9497027993202209</v>
+        <v>0.9688923358917236</v>
       </c>
       <c r="F42" t="n">
-        <v>5.313899517059326</v>
+        <v>1.654776334762573</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19.8</v>
+        <v>1.41</v>
       </c>
       <c r="B43" t="n">
-        <v>80.97</v>
+        <v>103.95</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9655462503433228</v>
+        <v>0.9758319854736328</v>
       </c>
       <c r="F43" t="n">
-        <v>5.291987895965576</v>
+        <v>1.309619188308716</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21.92</v>
+        <v>1.41</v>
       </c>
       <c r="B44" t="n">
-        <v>95.95999999999999</v>
+        <v>103.95</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9280757308006287</v>
+        <v>0.9863119125366211</v>
       </c>
       <c r="F44" t="n">
-        <v>6.485997676849365</v>
+        <v>1.381494283676147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22.75</v>
+        <v>1.41</v>
       </c>
       <c r="B45" t="n">
-        <v>84.75</v>
+        <v>103.95</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8886550664901733</v>
+        <v>0.9830413460731506</v>
       </c>
       <c r="F45" t="n">
-        <v>2.809918165206909</v>
+        <v>1.352799773216248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22.75</v>
+        <v>1.41</v>
       </c>
       <c r="B46" t="n">
-        <v>85.25</v>
+        <v>103.95</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9165512323379517</v>
+        <v>0.9875736832618713</v>
       </c>
       <c r="F46" t="n">
-        <v>2.92345118522644</v>
+        <v>1.187707424163818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23.42</v>
+        <v>1.41</v>
       </c>
       <c r="B47" t="n">
-        <v>25.66</v>
+        <v>103.95</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8985440731048584</v>
+        <v>0.7736398577690125</v>
       </c>
       <c r="F47" t="n">
-        <v>5.469344139099121</v>
+        <v>7.372812747955322</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23.5</v>
+        <v>1.41</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>103.95</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9200581908226013</v>
+        <v>0.9709682464599609</v>
       </c>
       <c r="F48" t="n">
-        <v>6.019118785858154</v>
+        <v>1.458897233009338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23.69</v>
+        <v>1.41</v>
       </c>
       <c r="B49" t="n">
-        <v>90.36</v>
+        <v>103.95</v>
       </c>
       <c r="C49" t="n">
         <v>12</v>
@@ -1419,210 +1419,1450 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9180120825767517</v>
+        <v>0.7826932072639465</v>
       </c>
       <c r="F49" t="n">
-        <v>5.220579624176025</v>
+        <v>7.713402271270752</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23.81</v>
+        <v>6.5</v>
       </c>
       <c r="B50" t="n">
-        <v>87.69</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9383652806282043</v>
+        <v>0.9243044853210449</v>
       </c>
       <c r="F50" t="n">
-        <v>17.41486930847168</v>
+        <v>2.09720253944397</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26.25</v>
+        <v>6.5</v>
       </c>
       <c r="B51" t="n">
-        <v>4.25</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9513460993766785</v>
+        <v>0.9471997022628784</v>
       </c>
       <c r="F51" t="n">
-        <v>11.04379367828369</v>
+        <v>2.254500865936279</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27.5</v>
+        <v>6.5</v>
       </c>
       <c r="B52" t="n">
-        <v>84.5</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9452032446861267</v>
+        <v>0.9297728538513184</v>
       </c>
       <c r="F52" t="n">
-        <v>23.78440093994141</v>
+        <v>1.601944208145142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28.6</v>
+        <v>6.5</v>
       </c>
       <c r="B53" t="n">
-        <v>84.13</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9429894089698792</v>
+        <v>0.9613200426101685</v>
       </c>
       <c r="F53" t="n">
-        <v>7.515171051025391</v>
+        <v>1.608867883682251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>30</v>
+        <v>6.5</v>
       </c>
       <c r="B54" t="n">
-        <v>80</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9543817043304443</v>
+        <v>0.9815346002578735</v>
       </c>
       <c r="F54" t="n">
-        <v>39.24417877197266</v>
+        <v>2.138212442398071</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40</v>
+        <v>6.5</v>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9397997856140137</v>
+        <v>0.9768428802490234</v>
       </c>
       <c r="F55" t="n">
-        <v>14.12214088439941</v>
+        <v>2.3393874168396</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>46.86</v>
+        <v>6.5</v>
       </c>
       <c r="B56" t="n">
-        <v>103.85</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8711497783660889</v>
+        <v>0.9830834865570068</v>
       </c>
       <c r="F56" t="n">
-        <v>8.945986747741699</v>
+        <v>2.590317010879517</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60</v>
+        <v>6.5</v>
       </c>
       <c r="B57" t="n">
-        <v>90</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.961869478225708</v>
+        <v>0.9720965027809143</v>
       </c>
       <c r="F57" t="n">
-        <v>30.4382438659668</v>
+        <v>2.22788405418396</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>64.2</v>
+        <v>6.5</v>
       </c>
       <c r="B58" t="n">
-        <v>-149.49</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.935046911239624</v>
+        <v>0.9763784408569336</v>
       </c>
       <c r="F58" t="n">
-        <v>15.37686920166016</v>
+        <v>2.623871803283691</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>75</v>
+        <v>6.5</v>
       </c>
       <c r="B59" t="n">
-        <v>-45</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9782881736755371</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.880843162536621</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9655845761299133</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.138637542724609</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12</v>
+      </c>
+      <c r="D61" t="b">
         <v>0</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.9612588286399841</v>
-      </c>
-      <c r="F59" t="n">
-        <v>16.3256664276123</v>
+      <c r="E61" t="n">
+        <v>0.7907818555831909</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.65080738067627</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B62" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9289821982383728</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.675878882408142</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B63" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9230952262878418</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.854547262191772</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B64" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.981919527053833</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.01327383518219</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B65" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9792934060096741</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.140110969543457</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B66" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8412817716598511</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.720572233200073</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B67" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9612859487533569</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.231142997741699</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B68" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9645806550979614</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.488249182701111</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B69" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.924399197101593</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.555151104927063</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B70" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9203311800956726</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.454222679138184</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B71" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9710047841072083</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.09179413318634</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B72" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8908215165138245</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6.368634223937988</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="B73" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8809625506401062</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6.48702335357666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9121342897415161</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.349156141281128</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B75" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9436452388763428</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.207237720489502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B76" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9584169983863831</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.118775844573975</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9699752330780029</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.905209302902222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9324789643287659</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.837365627288818</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.957007884979248</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.851722717285156</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9752906560897827</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.182399272918701</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9743541479110718</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.247167110443115</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B82" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9733449220657349</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.675726652145386</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B83" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.960650622844696</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.781209349632263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B84" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9683308601379395</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.076934337615967</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="B85" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7959498763084412</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.558098793029785</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.960468590259552</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.951552629470825</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B87" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9487776756286621</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.811959266662598</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9186524152755737</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.866490125656128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9757676124572754</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.468817234039307</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B90" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9780399799346924</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.053505659103394</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9708968997001648</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.418475389480591</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B92" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9695994853973389</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3.251396417617798</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B93" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9585443139076233</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.158624887466431</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B94" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9329755306243896</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.291350364685059</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9300807118415833</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.224447965621948</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9404871463775635</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.927779197692871</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8489484786987305</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10.92031478881836</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9654680490493774</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.760004043579102</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.9655263423919678</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.143185377120972</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9513348340988159</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.537540435791016</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9665881395339966</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.737231492996216</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9582781791687012</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.455341577529907</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9805255532264709</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.760310053825378</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.980680525302887</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.559086203575134</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.9920142889022827</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.174559473991394</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9786633849143982</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.520076036453247</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9802216291427612</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.918824672698975</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.9819472432136536</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.493911743164062</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-81.04000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.922444760799408</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.449970722198486</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B110" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9504267573356628</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.04177188873291</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B111" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.9743846654891968</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.808306336402893</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B112" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9724440574645996</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.038333177566528</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B113" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9723076820373535</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.998939037322998</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B114" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.966646671295166</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.995325446128845</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B115" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9605923295021057</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.685630202293396</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B116" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9712598323822021</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.867606043815613</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B117" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.9719415903091431</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.743967294692993</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B118" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9671918749809265</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.434892773628235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B119" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9534050822257996</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.501481413841248</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B120" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.9717574119567871</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.510519862174988</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="B121" t="n">
+        <v>93.36</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7827649116516113</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.924683570861816</v>
       </c>
     </row>
   </sheetData>

--- a/models/similarity_analysis_results.xlsx
+++ b/models/similarity_analysis_results.xlsx
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.960468590259552</v>
+        <v>0.9575341939926147</v>
       </c>
       <c r="F86" t="n">
-        <v>2.951552629470825</v>
+        <v>2.920072555541992</v>
       </c>
     </row>
     <row r="87">
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9487776756286621</v>
+        <v>0.9461137652397156</v>
       </c>
       <c r="F87" t="n">
-        <v>3.811959266662598</v>
+        <v>3.816616535186768</v>
       </c>
     </row>
     <row r="88">
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9186524152755737</v>
+        <v>0.9192550778388977</v>
       </c>
       <c r="F88" t="n">
-        <v>3.866490125656128</v>
+        <v>3.769295215606689</v>
       </c>
     </row>
     <row r="89">
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9757676124572754</v>
+        <v>0.977706253528595</v>
       </c>
       <c r="F89" t="n">
-        <v>2.468817234039307</v>
+        <v>2.394819021224976</v>
       </c>
     </row>
     <row r="90">
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9780399799346924</v>
+        <v>0.9793108701705933</v>
       </c>
       <c r="F90" t="n">
-        <v>3.053505659103394</v>
+        <v>2.96444034576416</v>
       </c>
     </row>
     <row r="91">
@@ -2259,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9708968997001648</v>
+        <v>0.9723692536354065</v>
       </c>
       <c r="F91" t="n">
-        <v>3.418475389480591</v>
+        <v>3.384618520736694</v>
       </c>
     </row>
     <row r="92">
@@ -2279,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9695994853973389</v>
+        <v>0.9686489105224609</v>
       </c>
       <c r="F92" t="n">
-        <v>3.251396417617798</v>
+        <v>3.241774559020996</v>
       </c>
     </row>
     <row r="93">
@@ -2299,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9585443139076233</v>
+        <v>0.9584410786628723</v>
       </c>
       <c r="F93" t="n">
-        <v>3.158624887466431</v>
+        <v>3.124388933181763</v>
       </c>
     </row>
     <row r="94">
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9329755306243896</v>
+        <v>0.9326063394546509</v>
       </c>
       <c r="F94" t="n">
-        <v>3.291350364685059</v>
+        <v>3.258960723876953</v>
       </c>
     </row>
     <row r="95">
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9300807118415833</v>
+        <v>0.9316174983978271</v>
       </c>
       <c r="F95" t="n">
-        <v>3.224447965621948</v>
+        <v>3.150962352752686</v>
       </c>
     </row>
     <row r="96">
@@ -2359,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9404871463775635</v>
+        <v>0.9428449869155884</v>
       </c>
       <c r="F96" t="n">
-        <v>3.927779197692871</v>
+        <v>3.9371337890625</v>
       </c>
     </row>
     <row r="97">
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8489484786987305</v>
+        <v>0.8490597009658813</v>
       </c>
       <c r="F97" t="n">
-        <v>10.92031478881836</v>
+        <v>10.88785743713379</v>
       </c>
     </row>
     <row r="98">
